--- a/output/fit_clients/fit_round_498.xlsx
+++ b/output/fit_clients/fit_round_498.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2112503890.839891</v>
+        <v>1599900591.957284</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08515813568337918</v>
+        <v>0.1021198815209611</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03349075924315278</v>
+        <v>0.04167952649128683</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1056251956.252638</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2082810582.422994</v>
+        <v>2363353858.25674</v>
       </c>
       <c r="F3" t="n">
-        <v>0.172382604722497</v>
+        <v>0.167979497751045</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04678597330794426</v>
+        <v>0.03954402236093951</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1041405344.114853</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4746360247.50101</v>
+        <v>3164382787.1189</v>
       </c>
       <c r="F4" t="n">
-        <v>0.114051239108228</v>
+        <v>0.1629674874814854</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02499756199624975</v>
+        <v>0.03337403481195645</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>180</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2373180190.827337</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2580243975.913754</v>
+        <v>2567203306.104807</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06918320546940319</v>
+        <v>0.09440757526162727</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04656091596971733</v>
+        <v>0.04664720433511063</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>184</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1290122085.576759</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1985588424.558878</v>
+        <v>2469311094.019203</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1174934217603984</v>
+        <v>0.1091446079525535</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0498340411034249</v>
+        <v>0.05401866455542671</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>94</v>
-      </c>
-      <c r="J6" t="n">
-        <v>992794243.4558502</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2792581725.17972</v>
+        <v>2200672271.207091</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06381290061417597</v>
+        <v>0.09109507585790098</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04202622476931801</v>
+        <v>0.04582846859946385</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>157</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1396290847.481844</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3644554244.821718</v>
+        <v>3208610900.789313</v>
       </c>
       <c r="F8" t="n">
-        <v>0.207815021431615</v>
+        <v>0.1995964208971336</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02617778752780367</v>
+        <v>0.0258837565927559</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>159</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1822277245.841551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1991595697.85157</v>
+        <v>1820790848.239888</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1686250449213907</v>
+        <v>0.1599499689270188</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03283409013115164</v>
+        <v>0.03318318906315763</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>995797876.7296487</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5177614446.804183</v>
+        <v>3978234689.993224</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1851756253744339</v>
+        <v>0.2097173050665357</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04598702211731249</v>
+        <v>0.05408591758284346</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>210</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2588807336.522312</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4256624188.719714</v>
+        <v>3045160083.220375</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1707975377192576</v>
+        <v>0.1557302551513779</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03382603565024157</v>
+        <v>0.04565617905143379</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>206</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2128312124.932783</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2600731619.07594</v>
+        <v>2041533531.97277</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1430365701401111</v>
+        <v>0.1624759558255968</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03270816291196363</v>
+        <v>0.03895835407993376</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>169</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1300365791.025586</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3416599601.678945</v>
+        <v>4693467053.785637</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08780629647519832</v>
+        <v>0.1001215982148855</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0280056885111741</v>
+        <v>0.02966812887953279</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>167</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1708299885.422335</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3449200005.758135</v>
+        <v>3518525262.08871</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1200865207602011</v>
+        <v>0.135273146801827</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03588451528534594</v>
+        <v>0.03857750906548781</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>161</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1724600004.811472</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1616091388.082275</v>
+        <v>1311419885.954082</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09630627177288639</v>
+        <v>0.06630041360301878</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04773883971131485</v>
+        <v>0.04541548453954623</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>808045805.8880507</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2265124248.734329</v>
+        <v>1926166113.466986</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07349735626142577</v>
+        <v>0.07057746211330154</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03316309276205395</v>
+        <v>0.05120532853520684</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>102</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1132562176.1871</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4360444031.684139</v>
+        <v>3314446531.83573</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1716849760376334</v>
+        <v>0.1623151442013219</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03509928900543439</v>
+        <v>0.03503059309155804</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>149</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2180222032.658678</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3220811740.957648</v>
+        <v>3464785184.58532</v>
       </c>
       <c r="F18" t="n">
-        <v>0.126798594411131</v>
+        <v>0.1160316910782062</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02722999279898905</v>
+        <v>0.03232087448362952</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>164</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1610405884.749726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1131617579.515115</v>
+        <v>1163143932.436885</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1861114298207782</v>
+        <v>0.1278378584208751</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0183165871329777</v>
+        <v>0.0185764518893741</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>565808851.0944979</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2773657024.97683</v>
+        <v>1719630897.816423</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1327280685971847</v>
+        <v>0.1329795480484018</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03149019947212936</v>
+        <v>0.02093359332931404</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>69</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1386828456.457429</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1676738014.122471</v>
+        <v>2173229302.913201</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06929274766720464</v>
+        <v>0.07992245533614445</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04276250526976161</v>
+        <v>0.03732774230029576</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>37</v>
-      </c>
-      <c r="J21" t="n">
-        <v>838369073.9675858</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3143245247.195611</v>
+        <v>2486012321.59085</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1105542945632076</v>
+        <v>0.1246792862808759</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03710693282388989</v>
+        <v>0.04588959878474185</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>137</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1571622676.572283</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1261583679.577083</v>
+        <v>941905804.3399925</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1298335925002321</v>
+        <v>0.1367243874273527</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0361292726795673</v>
+        <v>0.03486650867681106</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>630791865.9175068</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2760480821.879679</v>
+        <v>2602230806.007066</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1213194102527488</v>
+        <v>0.1141151556454255</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02680770372910118</v>
+        <v>0.03526121755946752</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>146</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1380240462.313816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1060391048.181487</v>
+        <v>1268219170.935576</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1018437651426002</v>
+        <v>0.07442838222555009</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02474861292629498</v>
+        <v>0.02371218864260143</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>530195574.1998628</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1062499030.922556</v>
+        <v>1394783396.597587</v>
       </c>
       <c r="F26" t="n">
-        <v>0.107520798579004</v>
+        <v>0.1095537106135826</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0250943747554608</v>
+        <v>0.02719972457335462</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>531249502.9144539</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4161545536.544964</v>
+        <v>3165060617.597893</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1183999616347542</v>
+        <v>0.1294331400159314</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01913392547891112</v>
+        <v>0.02483486385710824</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>125</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2080772770.423435</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3108300414.750381</v>
+        <v>3427313058.277196</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1501760678297201</v>
+        <v>0.1478360110020102</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04106577596811995</v>
+        <v>0.0348161974009342</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>163</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1554150228.005264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4821118639.208854</v>
+        <v>3670322487.732783</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1415690649032331</v>
+        <v>0.09832499406527606</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03379666009661295</v>
+        <v>0.0405142215039655</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>220</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2410559279.633515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1955272521.785698</v>
+        <v>2186811395.226576</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1137875466052811</v>
+        <v>0.1270443768418387</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03618500979918501</v>
+        <v>0.0349484478849955</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>977636293.3115242</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1023686772.97068</v>
+        <v>1042045248.077565</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09388070375914409</v>
+        <v>0.06976485511048998</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03539215972916986</v>
+        <v>0.04970517651631301</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>511843379.4648251</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1620772643.581726</v>
+        <v>1832535528.143892</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09506107702425234</v>
+        <v>0.08636899642612489</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03742353813099965</v>
+        <v>0.03490754615728438</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>810386415.1886809</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2166782159.661448</v>
+        <v>1957044688.982455</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1488927191469626</v>
+        <v>0.2059290317117627</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04986737364722012</v>
+        <v>0.04320457454067718</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>153</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1083391146.461402</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1070020450.320986</v>
+        <v>998427493.0052812</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1184450750536816</v>
+        <v>0.08100448262639615</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02527706558554451</v>
+        <v>0.02050884979539664</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>535010251.5969</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1352037798.896021</v>
+        <v>1247075951.630407</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1097223776854241</v>
+        <v>0.1169992027616604</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02769638092781385</v>
+        <v>0.04022247225720287</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>676018840.8558199</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2744863369.004459</v>
+        <v>2984490071.54755</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1754836062137702</v>
+        <v>0.1242550239050425</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01938968446057122</v>
+        <v>0.02866281371674458</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>127</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1372431686.899648</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2722099778.021425</v>
+        <v>2343248413.016083</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09691894751765173</v>
+        <v>0.0721594308620513</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03531295171459895</v>
+        <v>0.03373834375581738</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>135</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1361050015.678437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1708775699.611157</v>
+        <v>1608376412.119903</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09897811016481502</v>
+        <v>0.1083810881132389</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03748767136438059</v>
+        <v>0.02968236781044672</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>854387869.6018357</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1887043246.944025</v>
+        <v>1806524815.704977</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1228969596465846</v>
+        <v>0.1665725679645717</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0226529980900585</v>
+        <v>0.0319579277897661</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>943521635.1622936</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1556802847.096142</v>
+        <v>1419592035.031218</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1226671941333836</v>
+        <v>0.1335174947721805</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04710103937501382</v>
+        <v>0.05638171452765038</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>778401375.5534641</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2559679025.638417</v>
+        <v>2339828817.835707</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1474390483705494</v>
+        <v>0.1354212218878607</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03542171541833904</v>
+        <v>0.03134725918859965</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>120</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1279839532.256419</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2931096763.882484</v>
+        <v>4311945867.388814</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08138959983090228</v>
+        <v>0.08151041108807022</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03498656623182342</v>
+        <v>0.03509544775691138</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>163</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1465548337.666049</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2801578075.667961</v>
+        <v>1897018676.148321</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1438658716158336</v>
+        <v>0.1560448639133311</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02328078776476827</v>
+        <v>0.02085177966796566</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>172</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1400789056.18099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1918218037.013907</v>
+        <v>2151918420.334176</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09439499991909769</v>
+        <v>0.09762339380750579</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02345280027573613</v>
+        <v>0.03479096625533375</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>959109108.5389121</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2523089029.140532</v>
+        <v>2006849775.852906</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1866190909548392</v>
+        <v>0.1489084091088534</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05031024753242985</v>
+        <v>0.05549686703267727</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1261544558.218782</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3481833429.814924</v>
+        <v>3547069448.365359</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1348623089750796</v>
+        <v>0.1750216468951076</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04088000890095306</v>
+        <v>0.041740504872902</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>178</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1740916654.806897</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3179153819.353251</v>
+        <v>4516128105.269826</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1638519252816268</v>
+        <v>0.1279520314864286</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04097048823505452</v>
+        <v>0.04717853165967296</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>138</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1589576862.313879</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3276157924.480237</v>
+        <v>4390517215.637234</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08065703577738786</v>
+        <v>0.108755019526336</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02572930752601524</v>
+        <v>0.03227148015162238</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>163</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1638079038.689853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1831509233.526893</v>
+        <v>1742135590.700304</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1503039379087031</v>
+        <v>0.1557052660577662</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03984353237296232</v>
+        <v>0.03936186099738245</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>915754597.2790743</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4054082553.824982</v>
+        <v>4188338310.90374</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1762252198812116</v>
+        <v>0.1699296309274897</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03784645095943225</v>
+        <v>0.04075621599841767</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>170</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2027041261.769648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1371456487.39875</v>
+        <v>1376962733.185884</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1256691706134345</v>
+        <v>0.1951119927605457</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04900879595189873</v>
+        <v>0.03816009513968634</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>685728267.4929277</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3978141349.932804</v>
+        <v>4579510869.951533</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1322116217356847</v>
+        <v>0.1067909209293459</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06096797130609524</v>
+        <v>0.04514204100368421</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>205</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1989070732.753541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2348481061.808354</v>
+        <v>2340774643.538856</v>
       </c>
       <c r="F53" t="n">
-        <v>0.13621220765116</v>
+        <v>0.1582749700821177</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02649935517208239</v>
+        <v>0.0320642323126819</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>143</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1174240608.347532</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3570057864.233335</v>
+        <v>3828023556.720715</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1371103920754919</v>
+        <v>0.1619790811993337</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04251510531149911</v>
+        <v>0.04017960371623081</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>162</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1785028962.430315</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4446385702.222885</v>
+        <v>4705347029.448082</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2135627832328907</v>
+        <v>0.1593559323173959</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02788392540617357</v>
+        <v>0.01961974856833485</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>136</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2223192845.771716</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1373618977.700138</v>
+        <v>1648749543.182243</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1390587908912442</v>
+        <v>0.1068079418680548</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04937011774039527</v>
+        <v>0.05388097681425628</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>686809549.8662082</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2889000519.038432</v>
+        <v>4128910775.595012</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1356651129526065</v>
+        <v>0.1409426711751198</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02270391836559563</v>
+        <v>0.02258019235578101</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>158</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1444500254.627742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1505824972.719759</v>
+        <v>1776205661.277452</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1801348007251992</v>
+        <v>0.1870163151130336</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03760377141438249</v>
+        <v>0.03185900595757025</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>752912516.9793923</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4970739060.211685</v>
+        <v>3378692426.505126</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08288410571798252</v>
+        <v>0.1037742605963198</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04960765299707055</v>
+        <v>0.03450641637908731</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>138</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2485369459.23891</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3022517559.404123</v>
+        <v>3349363019.320289</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1541785562683382</v>
+        <v>0.2039402656678511</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03334939057961644</v>
+        <v>0.02673640988765806</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>156</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1511258852.436949</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2898741018.623183</v>
+        <v>3134946555.014935</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1167763390770052</v>
+        <v>0.1729697887447062</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02511202854498438</v>
+        <v>0.02604006489489013</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>172</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1449370499.351376</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1935705189.381248</v>
+        <v>1620196092.202523</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1282848201883194</v>
+        <v>0.1600494531248983</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03945714557201543</v>
+        <v>0.04551227897872009</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>967852643.1321217</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4974874057.032313</v>
+        <v>4534053884.066232</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08544238074394896</v>
+        <v>0.07776148541973354</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04417005085996031</v>
+        <v>0.02910773196534658</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>145</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2487437047.452957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4006561477.540622</v>
+        <v>4070171832.666559</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1707850257593533</v>
+        <v>0.1658107886167703</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02679639393624274</v>
+        <v>0.02241188484102291</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>155</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2003280775.12051</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5396169259.762087</v>
+        <v>4876944978.700238</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1701792915389511</v>
+        <v>0.1561489577078835</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03002126734094111</v>
+        <v>0.02382238841797438</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>179</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2698084565.162744</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5590846411.266287</v>
+        <v>5088749099.428032</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1443716897095051</v>
+        <v>0.1571796478576369</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05050887962347987</v>
+        <v>0.0479815247566187</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>147</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2795423264.450171</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2545928710.68224</v>
+        <v>2529497552.38061</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09171479502604493</v>
+        <v>0.07308471372062179</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04408431826931924</v>
+        <v>0.03450886304294753</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>160</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1272964412.094636</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4027352450.374878</v>
+        <v>4444326209.310947</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1228896963660441</v>
+        <v>0.129515819831997</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04153788181939689</v>
+        <v>0.03120340554092683</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>159</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2013676222.647657</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2480402784.040277</v>
+        <v>1939943717.406579</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1720586890903978</v>
+        <v>0.1331651563516245</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03632865646248959</v>
+        <v>0.05099973250973429</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1240201459.113175</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3193939989.713831</v>
+        <v>2972645489.984957</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09609479565625177</v>
+        <v>0.09356125837058744</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04160546431225245</v>
+        <v>0.04844189471851728</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>143</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1596969984.450878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4245506312.304411</v>
+        <v>4665859887.172531</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1333733202755484</v>
+        <v>0.1619723860522279</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02513351821067034</v>
+        <v>0.02650296291041171</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>182</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2122753205.527814</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1558221824.205804</v>
+        <v>1795676420.372969</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06886535659779171</v>
+        <v>0.1074772197849363</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03234176840321409</v>
+        <v>0.03380515490927975</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>779110929.6932933</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2294371963.723792</v>
+        <v>2658148793.885845</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06788091779971878</v>
+        <v>0.1001161619614131</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03899815775594594</v>
+        <v>0.03203149338173303</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>188</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1147186042.496119</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3993836955.899671</v>
+        <v>3302750780.345036</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1646952420124168</v>
+        <v>0.1665762832368255</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03460397571415938</v>
+        <v>0.02337336386385238</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>170</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1996918457.472986</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1566968598.809676</v>
+        <v>2412809397.568119</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1058511147004786</v>
+        <v>0.142239542040994</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03347549360626681</v>
+        <v>0.02541127099450135</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
         <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>783484304.1538197</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3572604081.978404</v>
+        <v>3352781423.224238</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1152100271649167</v>
+        <v>0.09844507253866799</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03376258494616862</v>
+        <v>0.03398078990584281</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1786302007.809284</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1652894370.420587</v>
+        <v>1792605081.185063</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1856411373370543</v>
+        <v>0.178373709711671</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02596765001948644</v>
+        <v>0.03007545956680969</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>826447195.4889412</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3258544960.354429</v>
+        <v>3159968557.777822</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1304530974877252</v>
+        <v>0.1143022082672829</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04897014301873372</v>
+        <v>0.05699475599010664</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>173</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1629272498.998828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1355137957.247919</v>
+        <v>1421694111.218719</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1507193525529066</v>
+        <v>0.1739172029677003</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03950322171343384</v>
+        <v>0.03713103950384366</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>677568987.4855746</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3593380566.664244</v>
+        <v>5130972479.364576</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09838656087043908</v>
+        <v>0.110567470905655</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03572235520048045</v>
+        <v>0.03238387959564609</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>105</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1796690262.587679</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4409531863.03657</v>
+        <v>3165392040.440827</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1122990195516873</v>
+        <v>0.1224945697341668</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02132066597105619</v>
+        <v>0.02414601207000543</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>110</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2204765909.956038</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4949132121.152761</v>
+        <v>4798904595.961926</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2043304179881485</v>
+        <v>0.1559953766288336</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02338103307696558</v>
+        <v>0.023708916329238</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>175</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2474566047.397583</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2195508762.925092</v>
+        <v>1655858802.223962</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1415510560669589</v>
+        <v>0.1034777907709528</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03027366425854479</v>
+        <v>0.04029360698132829</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1097754391.132351</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2261760886.045926</v>
+        <v>2109839853.909827</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08228075730654513</v>
+        <v>0.09108130886776933</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05035586536596223</v>
+        <v>0.05037410227086136</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>8</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1130880409.705712</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3068289178.445372</v>
+        <v>3104500160.3592</v>
       </c>
       <c r="F85" t="n">
-        <v>0.184270286213051</v>
+        <v>0.1492533113828035</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03923887875542328</v>
+        <v>0.04701547582587164</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>186</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1534144656.937244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2481829582.474069</v>
+        <v>2388518827.135178</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1132000292773723</v>
+        <v>0.1627967057184087</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0174580662844087</v>
+        <v>0.02245821433345459</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>62</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1240914885.895683</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>989224841.161545</v>
+        <v>1362562843.757152</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1689812438192179</v>
+        <v>0.1225517316640478</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03208060318446235</v>
+        <v>0.03189909998671666</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>494612422.1659377</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2675193464.434211</v>
+        <v>3430309519.817189</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1616425417093101</v>
+        <v>0.1450851382843888</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02944549963637777</v>
+        <v>0.03929641284262157</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>198</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1337596730.57691</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3406093453.185463</v>
+        <v>3455528219.100572</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1104731728864474</v>
+        <v>0.1237368526105144</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0390582827374668</v>
+        <v>0.03769695256194958</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>169</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1703046734.97261</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1615188321.157041</v>
+        <v>1501905000.989221</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1125229329486214</v>
+        <v>0.1206006649311993</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04555293349779524</v>
+        <v>0.05121641963184952</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>807594160.3873025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1417113335.918778</v>
+        <v>1433682812.596876</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1362437164179779</v>
+        <v>0.1247178387845236</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05592219965059596</v>
+        <v>0.04731453169748314</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>708556717.9740449</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2110047896.02837</v>
+        <v>2419456183.458588</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1099729083419825</v>
+        <v>0.08708651527812228</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0351246268115474</v>
+        <v>0.03352334053429944</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>135</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1055023902.518656</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3615392119.033453</v>
+        <v>4911928897.457393</v>
       </c>
       <c r="F93" t="n">
-        <v>0.109506982166714</v>
+        <v>0.1158362431582962</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03368029815505819</v>
+        <v>0.04713527594131404</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>150</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1807696085.008806</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2199914047.009415</v>
+        <v>1729750128.586783</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1075801578474313</v>
+        <v>0.1065059723078115</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03794121510118777</v>
+        <v>0.02648287044474742</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1099957047.869401</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3064571062.184959</v>
+        <v>2667480717.522463</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1020333277866908</v>
+        <v>0.1297184825315862</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0461323379201282</v>
+        <v>0.05128890964857553</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>121</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1532285526.18481</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1836435074.814045</v>
+        <v>1891661032.370263</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0939894691386462</v>
+        <v>0.1062391310285711</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02955877677490731</v>
+        <v>0.04336967850559698</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>918217541.871863</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3690647071.454319</v>
+        <v>4551074378.039925</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1544798937875224</v>
+        <v>0.1430480136846458</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02672522554962751</v>
+        <v>0.02466433888501949</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>160</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1845323567.247829</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3621694221.921325</v>
+        <v>2924711732.760301</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08415450663054383</v>
+        <v>0.08523141297279148</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02008110903380829</v>
+        <v>0.03047379761564202</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>137</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1810847137.842776</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2529482135.015058</v>
+        <v>2107736156.621621</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0937608983350892</v>
+        <v>0.1185122200893476</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02323622970798335</v>
+        <v>0.0214575120187979</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>156</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1264741019.362846</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3941659618.545424</v>
+        <v>4663283150.405087</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1498327944377655</v>
+        <v>0.1587539745814802</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01933669234256851</v>
+        <v>0.02762785214052286</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>152</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1970829875.318391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2622332651.598306</v>
+        <v>3092809327.894423</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1579904546066829</v>
+        <v>0.1440179812414947</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03765687532497233</v>
+        <v>0.043734099961102</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>201</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1311166364.975293</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_498.xlsx
+++ b/output/fit_clients/fit_round_498.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1599900591.957284</v>
+        <v>1808858967.239425</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1021198815209611</v>
+        <v>0.08555128641133165</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04167952649128683</v>
+        <v>0.03354297251120772</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2363353858.25674</v>
+        <v>1944139502.907994</v>
       </c>
       <c r="F3" t="n">
-        <v>0.167979497751045</v>
+        <v>0.166013109094556</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03954402236093951</v>
+        <v>0.03046559180571536</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3164382787.1189</v>
+        <v>3934728639.522388</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1629674874814854</v>
+        <v>0.1437074848839806</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03337403481195645</v>
+        <v>0.03430114978254386</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2567203306.104807</v>
+        <v>2648290624.879684</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09440757526162727</v>
+        <v>0.08391334687930053</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04664720433511063</v>
+        <v>0.03102219712835813</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2469311094.019203</v>
+        <v>2415021947.006638</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1091446079525535</v>
+        <v>0.09171137440718397</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05401866455542671</v>
+        <v>0.04718644633636938</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2200672271.207091</v>
+        <v>2014700626.126345</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09109507585790098</v>
+        <v>0.07785651906017192</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04582846859946385</v>
+        <v>0.03821888428175575</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3208610900.789313</v>
+        <v>3289754858.590552</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1995964208971336</v>
+        <v>0.1848308812872345</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0258837565927559</v>
+        <v>0.0205119970040889</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1820790848.239888</v>
+        <v>2306695448.580158</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1599499689270188</v>
+        <v>0.1957750604694643</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03318318906315763</v>
+        <v>0.03018184569507138</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3978234689.993224</v>
+        <v>4084512488.679784</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2097173050665357</v>
+        <v>0.209575816299621</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05408591758284346</v>
+        <v>0.0443312213841995</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3045160083.220375</v>
+        <v>2711039016.320565</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1557302551513779</v>
+        <v>0.1568532448708913</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04565617905143379</v>
+        <v>0.0472353004624218</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2041533531.97277</v>
+        <v>2901998645.527769</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1624759558255968</v>
+        <v>0.1245447270124026</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03895835407993376</v>
+        <v>0.03282714762163454</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4693467053.785637</v>
+        <v>3783366073.588504</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1001215982148855</v>
+        <v>0.0943999044220411</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02966812887953279</v>
+        <v>0.02386880310395784</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3518525262.08871</v>
+        <v>2481666167.836507</v>
       </c>
       <c r="F14" t="n">
-        <v>0.135273146801827</v>
+        <v>0.1270351538793413</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03857750906548781</v>
+        <v>0.03592046691453406</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,16 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1311419885.954082</v>
+        <v>1640959698.135652</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06630041360301878</v>
+        <v>0.08378771878420241</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04541548453954623</v>
+        <v>0.03215097794646977</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1926166113.466986</v>
+        <v>1827386563.968765</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07057746211330154</v>
+        <v>0.1158385828544921</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05120532853520684</v>
+        <v>0.04140333742848651</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3314446531.83573</v>
+        <v>5047158309.763545</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1623151442013219</v>
+        <v>0.1451354580993857</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03503059309155804</v>
+        <v>0.04316756647691326</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3464785184.58532</v>
+        <v>3377101703.14365</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1160316910782062</v>
+        <v>0.1778210679809547</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03232087448362952</v>
+        <v>0.02393661257637411</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1163143932.436885</v>
+        <v>849945379.0657878</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1278378584208751</v>
+        <v>0.1432406230437106</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0185764518893741</v>
+        <v>0.02033865590351298</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1719630897.816423</v>
+        <v>1828651965.092349</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1329795480484018</v>
+        <v>0.1012422629587194</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02093359332931404</v>
+        <v>0.03148266380664437</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2173229302.913201</v>
+        <v>1913690837.088656</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07992245533614445</v>
+        <v>0.08216742942592552</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03732774230029576</v>
+        <v>0.04454741854836507</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2486012321.59085</v>
+        <v>2502412588.987454</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1246792862808759</v>
+        <v>0.0891388972954308</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04588959878474185</v>
+        <v>0.04540135386487422</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>941905804.3399925</v>
+        <v>1185302294.908071</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1367243874273527</v>
+        <v>0.1729613889393876</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03486650867681106</v>
+        <v>0.04105532045212838</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2602230806.007066</v>
+        <v>3711854457.281087</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1141151556454255</v>
+        <v>0.1379693922207789</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03526121755946752</v>
+        <v>0.03196363750094215</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1268219170.935576</v>
+        <v>1100285078.962495</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07442838222555009</v>
+        <v>0.0970541139038677</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02371218864260143</v>
+        <v>0.0281851861350996</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1394783396.597587</v>
+        <v>1033570684.312682</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1095537106135826</v>
+        <v>0.07701422511752797</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02719972457335462</v>
+        <v>0.03702464212675809</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3165060617.597893</v>
+        <v>4424398998.560054</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1294331400159314</v>
+        <v>0.09501045116655142</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02483486385710824</v>
+        <v>0.02550991789381902</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3427313058.277196</v>
+        <v>2638052892.045252</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1478360110020102</v>
+        <v>0.1065030255618359</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0348161974009342</v>
+        <v>0.03714187706878903</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3670322487.732783</v>
+        <v>5033285840.615351</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09832499406527606</v>
+        <v>0.1040504065438809</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0405142215039655</v>
+        <v>0.03513870503786561</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2186811395.226576</v>
+        <v>1954986713.660705</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1270443768418387</v>
+        <v>0.1361806015683614</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0349484478849955</v>
+        <v>0.03512289134588497</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1042045248.077565</v>
+        <v>1353657357.558086</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06976485511048998</v>
+        <v>0.07907332165702241</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04970517651631301</v>
+        <v>0.03826300997115653</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1832535528.143892</v>
+        <v>1612922299.71367</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08636899642612489</v>
+        <v>0.08956749928811839</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03490754615728438</v>
+        <v>0.02594155709081994</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1957044688.982455</v>
+        <v>2286812361.610461</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2059290317117627</v>
+        <v>0.1606972786549448</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04320457454067718</v>
+        <v>0.04799131309347562</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>998427493.0052812</v>
+        <v>1431691125.264726</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08100448262639615</v>
+        <v>0.09669550590192236</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02050884979539664</v>
+        <v>0.02574000923114405</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1247075951.630407</v>
+        <v>1092231885.106173</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1169992027616604</v>
+        <v>0.0725878889244857</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04022247225720287</v>
+        <v>0.03586106900927472</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2984490071.54755</v>
+        <v>2793486943.421076</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1242550239050425</v>
+        <v>0.1554017631062631</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02866281371674458</v>
+        <v>0.02015498895450217</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2343248413.016083</v>
+        <v>2772563973.71515</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0721594308620513</v>
+        <v>0.07269248759883437</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03373834375581738</v>
+        <v>0.02969747611794867</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1608376412.119903</v>
+        <v>1763852119.666039</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1083810881132389</v>
+        <v>0.1137657074054086</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02968236781044672</v>
+        <v>0.03855822518919121</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1806524815.704977</v>
+        <v>1948083785.225909</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1665725679645717</v>
+        <v>0.124835622179669</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0319579277897661</v>
+        <v>0.02214757972478589</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1419592035.031218</v>
+        <v>1720872919.82841</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1335174947721805</v>
+        <v>0.1466659187944174</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05638171452765038</v>
+        <v>0.04241946037783677</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2339828817.835707</v>
+        <v>2263465648.948644</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1354212218878607</v>
+        <v>0.1614734895553879</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03134725918859965</v>
+        <v>0.03979061057974536</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4311945867.388814</v>
+        <v>3589030469.717708</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08151041108807022</v>
+        <v>0.09370492068701082</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03509544775691138</v>
+        <v>0.03307137164977814</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1897018676.148321</v>
+        <v>1865257935.703537</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1560448639133311</v>
+        <v>0.1560421562413349</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02085177966796566</v>
+        <v>0.0195829405687639</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2151918420.334176</v>
+        <v>1925924208.552883</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09762339380750579</v>
+        <v>0.07227236321879335</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03479096625533375</v>
+        <v>0.0290724474416182</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2006849775.852906</v>
+        <v>2413810909.490446</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1489084091088534</v>
+        <v>0.1655079991071896</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05549686703267727</v>
+        <v>0.03658853733673362</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3547069448.365359</v>
+        <v>3781057282.891233</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1750216468951076</v>
+        <v>0.1661451904192175</v>
       </c>
       <c r="G46" t="n">
-        <v>0.041740504872902</v>
+        <v>0.05554676670851315</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4516128105.269826</v>
+        <v>4728885246.795772</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1279520314864286</v>
+        <v>0.1239186572871446</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04717853165967296</v>
+        <v>0.04500221400881694</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4390517215.637234</v>
+        <v>3869244804.351432</v>
       </c>
       <c r="F48" t="n">
-        <v>0.108755019526336</v>
+        <v>0.08136717502489527</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03227148015162238</v>
+        <v>0.03387115745331326</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1742135590.700304</v>
+        <v>1464469451.952366</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1557052660577662</v>
+        <v>0.1468259997714795</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03936186099738245</v>
+        <v>0.02703898233317183</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4188338310.90374</v>
+        <v>3914849385.863543</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1699296309274897</v>
+        <v>0.1348194966804463</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04075621599841767</v>
+        <v>0.03273043951373316</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1376962733.185884</v>
+        <v>1286837228.85411</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1951119927605457</v>
+        <v>0.1657933569562197</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03816009513968634</v>
+        <v>0.05131032252112085</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4579510869.951533</v>
+        <v>4810090863.259175</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1067909209293459</v>
+        <v>0.1218044109528777</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04514204100368421</v>
+        <v>0.06088852867169558</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2340774643.538856</v>
+        <v>2919632508.437953</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1582749700821177</v>
+        <v>0.1884891942956249</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0320642323126819</v>
+        <v>0.02684034193627598</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3828023556.720715</v>
+        <v>3815973239.676052</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1619790811993337</v>
+        <v>0.1419734856260268</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04017960371623081</v>
+        <v>0.0343345649865201</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4705347029.448082</v>
+        <v>4923724645.582952</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1593559323173959</v>
+        <v>0.1768807607068344</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01961974856833485</v>
+        <v>0.02724569978757583</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1648749543.182243</v>
+        <v>1385301782.016908</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1068079418680548</v>
+        <v>0.1375812787000233</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05388097681425628</v>
+        <v>0.04694108564630624</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4128910775.595012</v>
+        <v>3143222956.940184</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1409426711751198</v>
+        <v>0.1644765201282075</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02258019235578101</v>
+        <v>0.02501746025715491</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1776205661.277452</v>
+        <v>1223146553.379487</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1870163151130336</v>
+        <v>0.1668188097178097</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03185900595757025</v>
+        <v>0.03451644637535852</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3378692426.505126</v>
+        <v>4334263722.418725</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1037742605963198</v>
+        <v>0.09792281435099058</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03450641637908731</v>
+        <v>0.04676355996491108</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3349363019.320289</v>
+        <v>3338760527.511127</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2039402656678511</v>
+        <v>0.1634702520696511</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02673640988765806</v>
+        <v>0.02728637669203348</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3134946555.014935</v>
+        <v>3214389964.473398</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1729697887447062</v>
+        <v>0.1681369060150997</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02604006489489013</v>
+        <v>0.02639581920693054</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1620196092.202523</v>
+        <v>1758760792.796478</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1600494531248983</v>
+        <v>0.1200311887944562</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04551227897872009</v>
+        <v>0.03619873864561345</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4534053884.066232</v>
+        <v>4254458342.184373</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07776148541973354</v>
+        <v>0.1076044413378287</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02910773196534658</v>
+        <v>0.04771595699051967</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4070171832.666559</v>
+        <v>4228236139.06311</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1658107886167703</v>
+        <v>0.1775726238217731</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02241188484102291</v>
+        <v>0.0306885072622684</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4876944978.700238</v>
+        <v>4465363972.285477</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1561489577078835</v>
+        <v>0.1686723391056468</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02382238841797438</v>
+        <v>0.02678249317867457</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5088749099.428032</v>
+        <v>5711582390.338804</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1571796478576369</v>
+        <v>0.1051897739306344</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0479815247566187</v>
+        <v>0.04569351197215339</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,16 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2529497552.38061</v>
+        <v>2586578911.573059</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07308471372062179</v>
+        <v>0.09876336931568024</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03450886304294753</v>
+        <v>0.04348085740189406</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4444326209.310947</v>
+        <v>4028878898.534213</v>
       </c>
       <c r="F68" t="n">
-        <v>0.129515819831997</v>
+        <v>0.1280245102103014</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03120340554092683</v>
+        <v>0.04601431639356445</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1939943717.406579</v>
+        <v>2206938832.167238</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1331651563516245</v>
+        <v>0.1731539186978229</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05099973250973429</v>
+        <v>0.05177459313074804</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2972645489.984957</v>
+        <v>3082087593.758904</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09356125837058744</v>
+        <v>0.07959247433753698</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04844189471851728</v>
+        <v>0.04293871977888843</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4665859887.172531</v>
+        <v>5317789976.297</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1619723860522279</v>
+        <v>0.1313630458332924</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02650296291041171</v>
+        <v>0.03383069679470878</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1795676420.372969</v>
+        <v>1729421714.422396</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1074772197849363</v>
+        <v>0.08022327945602803</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03380515490927975</v>
+        <v>0.03343045021497739</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2658148793.885845</v>
+        <v>3436753317.050752</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1001161619614131</v>
+        <v>0.08744582576508766</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03203149338173303</v>
+        <v>0.04789872419617819</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3302750780.345036</v>
+        <v>3011419755.251073</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1665762832368255</v>
+        <v>0.118692758452032</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02337336386385238</v>
+        <v>0.02343103648544721</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2412809397.568119</v>
+        <v>2096202503.426358</v>
       </c>
       <c r="F75" t="n">
-        <v>0.142239542040994</v>
+        <v>0.1417142404646692</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02541127099450135</v>
+        <v>0.02997960263798299</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3352781423.224238</v>
+        <v>4586477452.83262</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09844507253866799</v>
+        <v>0.09715121406823432</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03398078990584281</v>
+        <v>0.02577490255455766</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1792605081.185063</v>
+        <v>1513765047.287388</v>
       </c>
       <c r="F77" t="n">
-        <v>0.178373709711671</v>
+        <v>0.1286684379056762</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03007545956680969</v>
+        <v>0.02630540465822153</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3159968557.777822</v>
+        <v>2930425702.234458</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1143022082672829</v>
+        <v>0.0993196039478324</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05699475599010664</v>
+        <v>0.04708838270321235</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1421694111.218719</v>
+        <v>1662053784.283379</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1739172029677003</v>
+        <v>0.1081732283196924</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03713103950384366</v>
+        <v>0.03527511009738368</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5130972479.364576</v>
+        <v>3915824910.984129</v>
       </c>
       <c r="F80" t="n">
-        <v>0.110567470905655</v>
+        <v>0.07374247603284509</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03238387959564609</v>
+        <v>0.03783290212158252</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3165392040.440827</v>
+        <v>4407532349.109612</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1224945697341668</v>
+        <v>0.1130637422054414</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02414601207000543</v>
+        <v>0.02568018653163762</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4798904595.961926</v>
+        <v>5278253197.984505</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1559953766288336</v>
+        <v>0.1709892961355338</v>
       </c>
       <c r="G82" t="n">
-        <v>0.023708916329238</v>
+        <v>0.02605941486295629</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1655858802.223962</v>
+        <v>2445816192.617731</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1034777907709528</v>
+        <v>0.1090197609842037</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04029360698132829</v>
+        <v>0.03618431749265624</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2109839853.909827</v>
+        <v>2057342080.582923</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09108130886776933</v>
+        <v>0.08449169569552607</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05037410227086136</v>
+        <v>0.03511211543673898</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3104500160.3592</v>
+        <v>2709527699.921046</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1492533113828035</v>
+        <v>0.1174435535622932</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04701547582587164</v>
+        <v>0.03576216576105484</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2388518827.135178</v>
+        <v>2297021970.161544</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1627967057184087</v>
+        <v>0.1245363971616841</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02245821433345459</v>
+        <v>0.0217114630810238</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1362562843.757152</v>
+        <v>995423556.8140324</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1225517316640478</v>
+        <v>0.1395151576755733</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03189909998671666</v>
+        <v>0.03836519173269382</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3430309519.817189</v>
+        <v>3213402215.0913</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1450851382843888</v>
+        <v>0.1187923962900013</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03929641284262157</v>
+        <v>0.03983150906169948</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3455528219.100572</v>
+        <v>2981877902.958004</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1237368526105144</v>
+        <v>0.1357169504639003</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03769695256194958</v>
+        <v>0.0355769461319212</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1501905000.989221</v>
+        <v>1344047135.450715</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1206006649311993</v>
+        <v>0.1297868066394244</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05121641963184952</v>
+        <v>0.0457411488388417</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1433682812.596876</v>
+        <v>1314669066.372693</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1247178387845236</v>
+        <v>0.1614915257192567</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04731453169748314</v>
+        <v>0.04076726633870186</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2419456183.458588</v>
+        <v>2051876868.572072</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08708651527812228</v>
+        <v>0.07661995866678115</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03352334053429944</v>
+        <v>0.04616564945500453</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4911928897.457393</v>
+        <v>4163811835.986182</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1158362431582962</v>
+        <v>0.1290374824827339</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04713527594131404</v>
+        <v>0.05022896630084661</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1729750128.586783</v>
+        <v>2176223661.415701</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1065059723078115</v>
+        <v>0.1450522451125094</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02648287044474742</v>
+        <v>0.03094061355304632</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2667480717.522463</v>
+        <v>2942571073.548408</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1297184825315862</v>
+        <v>0.08889850610237766</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05128890964857553</v>
+        <v>0.03832587367081079</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1891661032.370263</v>
+        <v>2234388375.059446</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1062391310285711</v>
+        <v>0.1251506435946769</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04336967850559698</v>
+        <v>0.03950922050624674</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4551074378.039925</v>
+        <v>5082356361.386162</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1430480136846458</v>
+        <v>0.1408790211138698</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02466433888501949</v>
+        <v>0.02382512453464746</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2924711732.760301</v>
+        <v>2467399168.799832</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08523141297279148</v>
+        <v>0.1255735103545383</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03047379761564202</v>
+        <v>0.02731963992644502</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,16 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2107736156.621621</v>
+        <v>2829391908.038767</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1185122200893476</v>
+        <v>0.1375940765288964</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0214575120187979</v>
+        <v>0.03104626410684861</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4663283150.405087</v>
+        <v>3173727239.824956</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1587539745814802</v>
+        <v>0.125413174461789</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02762785214052286</v>
+        <v>0.02796330213029421</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3092809327.894423</v>
+        <v>2352007282.608346</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1440179812414947</v>
+        <v>0.1818693456985174</v>
       </c>
       <c r="G101" t="n">
-        <v>0.043734099961102</v>
+        <v>0.03910200405928444</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_498.xlsx
+++ b/output/fit_clients/fit_round_498.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1808858967.239425</v>
+        <v>2165143401.256549</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08555128641133165</v>
+        <v>0.08973043761319775</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03354297251120772</v>
+        <v>0.03303146388589721</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1944139502.907994</v>
+        <v>2616008429.978286</v>
       </c>
       <c r="F3" t="n">
-        <v>0.166013109094556</v>
+        <v>0.1527046900559469</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03046559180571536</v>
+        <v>0.03948639668249866</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3934728639.522388</v>
+        <v>4535839018.944092</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1437074848839806</v>
+        <v>0.1020333902645095</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03430114978254386</v>
+        <v>0.02755383926312675</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>251</v>
+      </c>
+      <c r="J4" t="n">
+        <v>497</v>
+      </c>
+      <c r="K4" t="n">
+        <v>25.37821176782322</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2648290624.879684</v>
+        <v>3643937975.444618</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08391334687930053</v>
+        <v>0.07609556283189847</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03102219712835813</v>
+        <v>0.04568981843809989</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>210</v>
+      </c>
+      <c r="J5" t="n">
+        <v>498</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2415021947.006638</v>
+        <v>2104077050.479637</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09171137440718397</v>
+        <v>0.1007367213356792</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04718644633636938</v>
+        <v>0.05537272383406786</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2014700626.126345</v>
+        <v>2639612643.122074</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07785651906017192</v>
+        <v>0.07387644957177526</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03821888428175575</v>
+        <v>0.03055996264002681</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3289754858.590552</v>
+        <v>2469046054.531412</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1848308812872345</v>
+        <v>0.1933833230669369</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0205119970040889</v>
+        <v>0.02705839833377399</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>143</v>
+      </c>
+      <c r="J8" t="n">
+        <v>497</v>
+      </c>
+      <c r="K8" t="n">
+        <v>16.71844295566888</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2306695448.580158</v>
+        <v>2284892426.721714</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1957750604694643</v>
+        <v>0.1896231363721151</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03018184569507138</v>
+        <v>0.03023361763843217</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +785,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4084512488.679784</v>
+        <v>5006124668.11098</v>
       </c>
       <c r="F10" t="n">
-        <v>0.209575816299621</v>
+        <v>0.1535446851767816</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0443312213841995</v>
+        <v>0.03902731995881226</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>375</v>
+      </c>
+      <c r="J10" t="n">
+        <v>497</v>
+      </c>
+      <c r="K10" t="n">
+        <v>24.93676053671827</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2711039016.320565</v>
+        <v>3403434943.66993</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1568532448708913</v>
+        <v>0.1331936127340054</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0472353004624218</v>
+        <v>0.0327446643237049</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>207</v>
+      </c>
+      <c r="J11" t="n">
+        <v>494</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2901998645.527769</v>
+        <v>2514015425.516901</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1245447270124026</v>
+        <v>0.1374828430847528</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03282714762163454</v>
+        <v>0.04717006640442359</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3783366073.588504</v>
+        <v>5303704890.901372</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0943999044220411</v>
+        <v>0.08124291070726448</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02386880310395784</v>
+        <v>0.03130186534634383</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>257</v>
+      </c>
+      <c r="J13" t="n">
+        <v>497</v>
+      </c>
+      <c r="K13" t="n">
+        <v>25.85771436419062</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +923,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2481666167.836507</v>
+        <v>3299412422.738222</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1270351538793413</v>
+        <v>0.172840972317064</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03592046691453406</v>
+        <v>0.03133344619632946</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>117</v>
+      </c>
+      <c r="J14" t="n">
+        <v>498</v>
+      </c>
+      <c r="K14" t="n">
+        <v>33.5162378547382</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +960,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1640959698.135652</v>
+        <v>1401375924.636029</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08378771878420241</v>
+        <v>0.07844907771714325</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03215097794646977</v>
+        <v>0.04210559700123809</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +995,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1827386563.968765</v>
+        <v>2422968342.121414</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1158385828544921</v>
+        <v>0.07533390400946609</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04140333742848651</v>
+        <v>0.04727994913501694</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1030,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5047158309.763545</v>
+        <v>4108932385.198464</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1451354580993857</v>
+        <v>0.120127046961764</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04316756647691326</v>
+        <v>0.03634936068704091</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>242</v>
+      </c>
+      <c r="J17" t="n">
+        <v>498</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1065,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3377101703.14365</v>
+        <v>2947027561.769349</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1778210679809547</v>
+        <v>0.1263846451278953</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02393661257637411</v>
+        <v>0.02191181268693192</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>134</v>
+      </c>
+      <c r="J18" t="n">
+        <v>497</v>
+      </c>
+      <c r="K18" t="n">
+        <v>24.63651556407216</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1102,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>849945379.0657878</v>
+        <v>1362551200.055507</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1432406230437106</v>
+        <v>0.1212575804957175</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02033865590351298</v>
+        <v>0.02566261445173845</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1143,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1828651965.092349</v>
+        <v>2601665020.20634</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1012422629587194</v>
+        <v>0.112805454476379</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03148266380664437</v>
+        <v>0.02827311435274416</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1172,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1913690837.088656</v>
+        <v>2105711857.538506</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08216742942592552</v>
+        <v>0.0971311685787956</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04454741854836507</v>
+        <v>0.02993844122952933</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1213,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2502412588.987454</v>
+        <v>3861615993.116817</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0891388972954308</v>
+        <v>0.09284583619845845</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04540135386487422</v>
+        <v>0.03574593781845039</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>146</v>
+      </c>
+      <c r="J22" t="n">
+        <v>498</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1248,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1185302294.908071</v>
+        <v>1274001482.23849</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1729613889393876</v>
+        <v>0.1175398172059023</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04105532045212838</v>
+        <v>0.04804499580674944</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1283,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3711854457.281087</v>
+        <v>2808181984.948366</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1379693922207789</v>
+        <v>0.1153700987669836</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03196363750094215</v>
+        <v>0.02636601893497085</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>157</v>
+      </c>
+      <c r="J24" t="n">
+        <v>496</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1318,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1100285078.962495</v>
+        <v>999639633.3666658</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0970541139038677</v>
+        <v>0.121305060710772</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0281851861350996</v>
+        <v>0.02621667941180611</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1353,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1033570684.312682</v>
+        <v>1308012066.548336</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07701422511752797</v>
+        <v>0.115046815408244</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03702464212675809</v>
+        <v>0.03531981381131543</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1382,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4424398998.560054</v>
+        <v>3154820570.997109</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09501045116655142</v>
+        <v>0.09788356037368161</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02550991789381902</v>
+        <v>0.02618572063712132</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>223</v>
+      </c>
+      <c r="J27" t="n">
+        <v>497</v>
+      </c>
+      <c r="K27" t="n">
+        <v>19.85035687243923</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1419,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2638052892.045252</v>
+        <v>2502077288.858465</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1065030255618359</v>
+        <v>0.1372338003487665</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03714187706878903</v>
+        <v>0.03627770397471967</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>122</v>
+      </c>
+      <c r="J28" t="n">
+        <v>491</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1460,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5033285840.615351</v>
+        <v>5325927921.509078</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1040504065438809</v>
+        <v>0.1188722841847592</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03513870503786561</v>
+        <v>0.03399398328573572</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>390</v>
+      </c>
+      <c r="J29" t="n">
+        <v>497</v>
+      </c>
+      <c r="K29" t="n">
+        <v>26.24481006095143</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1954986713.660705</v>
+        <v>1504410717.827412</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1361806015683614</v>
+        <v>0.1181745345016276</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03512289134588497</v>
+        <v>0.02426094974767125</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1353657357.558086</v>
+        <v>1113862456.49227</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07907332165702241</v>
+        <v>0.07040211128586564</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03826300997115653</v>
+        <v>0.04118197244830021</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1612922299.71367</v>
+        <v>1440407286.515754</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08956749928811839</v>
+        <v>0.07649762775748072</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02594155709081994</v>
+        <v>0.03117162669151617</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1602,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2286812361.610461</v>
+        <v>2746885669.832551</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1606972786549448</v>
+        <v>0.1823551832702165</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04799131309347562</v>
+        <v>0.04628252003662128</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1431691125.264726</v>
+        <v>1501293691.578385</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09669550590192236</v>
+        <v>0.09216756735013627</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02574000923114405</v>
+        <v>0.02331692787951645</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1672,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1092231885.106173</v>
+        <v>1083561164.271577</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0725878889244857</v>
+        <v>0.0926418833853685</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03586106900927472</v>
+        <v>0.04486829564025868</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1707,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2793486943.421076</v>
+        <v>2519831927.318925</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1554017631062631</v>
+        <v>0.1471887011255277</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02015498895450217</v>
+        <v>0.02446816831315624</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2772563973.71515</v>
+        <v>2878486157.519439</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07269248759883437</v>
+        <v>0.09105830306809054</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02969747611794867</v>
+        <v>0.0341881506661838</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1763852119.666039</v>
+        <v>1980389105.485388</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1137657074054086</v>
+        <v>0.1039651483497877</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03855822518919121</v>
+        <v>0.0272425184216565</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1812,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1948083785.225909</v>
+        <v>2136921284.04995</v>
       </c>
       <c r="F39" t="n">
-        <v>0.124835622179669</v>
+        <v>0.1671973207998432</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02214757972478589</v>
+        <v>0.03034919237977554</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1847,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1720872919.82841</v>
+        <v>1557132674.177182</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1466659187944174</v>
+        <v>0.1471819913242071</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04241946037783677</v>
+        <v>0.05632231141782634</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2263465648.948644</v>
+        <v>2770719155.621669</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1614734895553879</v>
+        <v>0.1605333134474861</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03979061057974536</v>
+        <v>0.04286756952888953</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1911,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3589030469.717708</v>
+        <v>3865981062.057501</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09370492068701082</v>
+        <v>0.1077214319425479</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03307137164977814</v>
+        <v>0.03316004786101152</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>211</v>
+      </c>
+      <c r="J42" t="n">
+        <v>498</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1952,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1865257935.703537</v>
+        <v>2864036272.993914</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1560421562413349</v>
+        <v>0.1345760200819636</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0195829405687639</v>
+        <v>0.02044901009796102</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1987,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1925924208.552883</v>
+        <v>1621627438.420058</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07227236321879335</v>
+        <v>0.07668858475749353</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0290724474416182</v>
+        <v>0.03357874162173226</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2413810909.490446</v>
+        <v>2127969429.335387</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1655079991071896</v>
+        <v>0.1683879575459669</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03658853733673362</v>
+        <v>0.05143984871695659</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2051,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3781057282.891233</v>
+        <v>5004185590.931296</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1661451904192175</v>
+        <v>0.1194965530012721</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05554676670851315</v>
+        <v>0.03782152447168621</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>292</v>
+      </c>
+      <c r="J46" t="n">
+        <v>498</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4728885246.795772</v>
+        <v>4710510646.385033</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1239186572871446</v>
+        <v>0.1467843292279891</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04500221400881694</v>
+        <v>0.0393080013798273</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>226</v>
+      </c>
+      <c r="J47" t="n">
+        <v>498</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,16 +2127,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3869244804.351432</v>
+        <v>4070562773.200265</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08136717502489527</v>
+        <v>0.09273319795729659</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03387115745331326</v>
+        <v>0.02807622005945936</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>249</v>
+      </c>
+      <c r="J48" t="n">
+        <v>498</v>
+      </c>
+      <c r="K48" t="n">
+        <v>27.24028547931283</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2164,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1464469451.952366</v>
+        <v>1293828684.447437</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1468259997714795</v>
+        <v>0.1954643583871366</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02703898233317183</v>
+        <v>0.03632174423439128</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3914849385.863543</v>
+        <v>2575737061.737487</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1348194966804463</v>
+        <v>0.1106154910129152</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03273043951373316</v>
+        <v>0.03293513988714786</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>179</v>
+      </c>
+      <c r="J50" t="n">
+        <v>494</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1286837228.85411</v>
+        <v>1138604746.58138</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1657933569562197</v>
+        <v>0.1331208995293862</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05131032252112085</v>
+        <v>0.04247727568117765</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2263,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4810090863.259175</v>
+        <v>3715383449.876568</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1218044109528777</v>
+        <v>0.1267946250420176</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06088852867169558</v>
+        <v>0.04801184150248648</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>277</v>
+      </c>
+      <c r="J52" t="n">
+        <v>497</v>
+      </c>
+      <c r="K52" t="n">
+        <v>23.27284389113614</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2919632508.437953</v>
+        <v>2903736352.620926</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1884891942956249</v>
+        <v>0.140044857879583</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02684034193627598</v>
+        <v>0.03246304441174246</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>80</v>
+      </c>
+      <c r="J53" t="n">
+        <v>496</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2335,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3815973239.676052</v>
+        <v>3209283511.299543</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1419734856260268</v>
+        <v>0.133582211663726</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0343345649865201</v>
+        <v>0.04259247461819377</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>262</v>
+      </c>
+      <c r="J54" t="n">
+        <v>497</v>
+      </c>
+      <c r="K54" t="n">
+        <v>18.92415193237144</v>
       </c>
     </row>
     <row r="55">
@@ -1970,17 +2378,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4923724645.582952</v>
+        <v>3486499180.919566</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1768807607068344</v>
+        <v>0.193974330014398</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02724569978757583</v>
+        <v>0.03227792125426073</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>246</v>
+      </c>
+      <c r="J55" t="n">
+        <v>496</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2413,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1385301782.016908</v>
+        <v>1167387407.747669</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1375812787000233</v>
+        <v>0.1638383921015175</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04694108564630624</v>
+        <v>0.0351769344074274</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2442,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3143222956.940184</v>
+        <v>3277283162.517977</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1644765201282075</v>
+        <v>0.141131353201998</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02501746025715491</v>
+        <v>0.0180271236512531</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>213</v>
+      </c>
+      <c r="J57" t="n">
+        <v>497</v>
+      </c>
+      <c r="K57" t="n">
+        <v>22.96372088503963</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1223146553.379487</v>
+        <v>1742748570.405541</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1668188097178097</v>
+        <v>0.161569927336333</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03451644637535852</v>
+        <v>0.02797620826214128</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2520,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4334263722.418725</v>
+        <v>3737172052.860003</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09792281435099058</v>
+        <v>0.1169089071005551</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04676355996491108</v>
+        <v>0.04399147372927957</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>245</v>
+      </c>
+      <c r="J59" t="n">
+        <v>497</v>
+      </c>
+      <c r="K59" t="n">
+        <v>24.93134414392475</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2551,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3338760527.511127</v>
+        <v>2754079596.799423</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1634702520696511</v>
+        <v>0.1935412021263732</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02728637669203348</v>
+        <v>0.02354465305640861</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>101</v>
+      </c>
+      <c r="J60" t="n">
+        <v>491</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2586,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3214389964.473398</v>
+        <v>2712855298.248439</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1681369060150997</v>
+        <v>0.148242258328243</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02639581920693054</v>
+        <v>0.02005288784351554</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2621,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1758760792.796478</v>
+        <v>2056930325.123729</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1200311887944562</v>
+        <v>0.1849478395484793</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03619873864561345</v>
+        <v>0.04560414934012939</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2656,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4254458342.184373</v>
+        <v>4256170183.150818</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1076044413378287</v>
+        <v>0.09081108756673735</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04771595699051967</v>
+        <v>0.04719766856144631</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>248</v>
+      </c>
+      <c r="J63" t="n">
+        <v>498</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2691,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4228236139.06311</v>
+        <v>4458280021.016083</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1775726238217731</v>
+        <v>0.1754396602393252</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0306885072622684</v>
+        <v>0.02447966876531163</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>248</v>
+      </c>
+      <c r="J64" t="n">
+        <v>498</v>
+      </c>
+      <c r="K64" t="n">
+        <v>26.60827137832276</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2728,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4465363972.285477</v>
+        <v>5459280743.578122</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1686723391056468</v>
+        <v>0.1530032855942116</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02678249317867457</v>
+        <v>0.02776928131900875</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>347</v>
+      </c>
+      <c r="J65" t="n">
+        <v>497</v>
+      </c>
+      <c r="K65" t="n">
+        <v>24.93986417553702</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2771,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5711582390.338804</v>
+        <v>4286394615.27854</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1051897739306344</v>
+        <v>0.1003626351063983</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04569351197215339</v>
+        <v>0.04771713861516466</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>246</v>
+      </c>
+      <c r="J66" t="n">
+        <v>498</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2586578911.573059</v>
+        <v>3251183352.53733</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09876336931568024</v>
+        <v>0.07698818458351206</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04348085740189406</v>
+        <v>0.03822885082616673</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>18</v>
+      </c>
+      <c r="J67" t="n">
+        <v>496</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2835,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4028878898.534213</v>
+        <v>5295240550.649393</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1280245102103014</v>
+        <v>0.147881937203665</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04601431639356445</v>
+        <v>0.03644306696376447</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>270</v>
+      </c>
+      <c r="J68" t="n">
+        <v>497</v>
+      </c>
+      <c r="K68" t="n">
+        <v>25.37850076442145</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2872,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2206938832.167238</v>
+        <v>2482790993.977696</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1731539186978229</v>
+        <v>0.1147826097192085</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05177459313074804</v>
+        <v>0.05775558303747222</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2907,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3082087593.758904</v>
+        <v>3225736498.580473</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07959247433753698</v>
+        <v>0.07233613580848015</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04293871977888843</v>
+        <v>0.0481994737887478</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>77</v>
+      </c>
+      <c r="J70" t="n">
+        <v>493</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2942,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5317789976.297</v>
+        <v>5446932035.108805</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1313630458332924</v>
+        <v>0.1626668484651564</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03383069679470878</v>
+        <v>0.02706588136126632</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>333</v>
+      </c>
+      <c r="J71" t="n">
+        <v>498</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2983,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1729421714.422396</v>
+        <v>1628964870.058109</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08022327945602803</v>
+        <v>0.09616313647659019</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03343045021497739</v>
+        <v>0.03676019997186</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3018,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3436753317.050752</v>
+        <v>2445624351.384789</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08744582576508766</v>
+        <v>0.1043524220341544</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04789872419617819</v>
+        <v>0.047502788081451</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>48</v>
+      </c>
+      <c r="J73" t="n">
+        <v>491</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3011419755.251073</v>
+        <v>3597795865.394254</v>
       </c>
       <c r="F74" t="n">
-        <v>0.118692758452032</v>
+        <v>0.1440445469336478</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02343103648544721</v>
+        <v>0.03454336787191051</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>146</v>
+      </c>
+      <c r="J74" t="n">
+        <v>498</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2096202503.426358</v>
+        <v>1952124805.218019</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1417142404646692</v>
+        <v>0.1531785835677702</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02997960263798299</v>
+        <v>0.02792701337030913</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3123,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4586477452.83262</v>
+        <v>3643548399.763361</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09715121406823432</v>
+        <v>0.09091257090968279</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02577490255455766</v>
+        <v>0.02890004149456538</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>238</v>
+      </c>
+      <c r="J76" t="n">
+        <v>498</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1513765047.287388</v>
+        <v>1831444969.290301</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1286684379056762</v>
+        <v>0.1535742563925806</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02630540465822153</v>
+        <v>0.03120747385676601</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2930425702.234458</v>
+        <v>3353358184.642992</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0993196039478324</v>
+        <v>0.126899555297916</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04708838270321235</v>
+        <v>0.04075646099054065</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>247</v>
+      </c>
+      <c r="J78" t="n">
+        <v>497</v>
+      </c>
+      <c r="K78" t="n">
+        <v>20.06774166649873</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1662053784.283379</v>
+        <v>1343983694.254164</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1081732283196924</v>
+        <v>0.1561503200615882</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03527511009738368</v>
+        <v>0.03457144397636059</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3265,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3915824910.984129</v>
+        <v>4924507863.000003</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07374247603284509</v>
+        <v>0.09824066119340519</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03783290212158252</v>
+        <v>0.02841355161107129</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>243</v>
+      </c>
+      <c r="J80" t="n">
+        <v>498</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4407532349.109612</v>
+        <v>4585239354.381281</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1130637422054414</v>
+        <v>0.1056258602777371</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02568018653163762</v>
+        <v>0.03204252901093201</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>233</v>
+      </c>
+      <c r="J81" t="n">
+        <v>498</v>
+      </c>
+      <c r="K81" t="n">
+        <v>27.33728756911188</v>
       </c>
     </row>
     <row r="82">
@@ -2726,17 +3337,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5278253197.984505</v>
+        <v>5473753758.144837</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1709892961355338</v>
+        <v>0.2017952027465783</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02605941486295629</v>
+        <v>0.02749971771888249</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>325</v>
+      </c>
+      <c r="J82" t="n">
+        <v>498</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2445816192.617731</v>
+        <v>1615217616.798248</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1090197609842037</v>
+        <v>0.1377931432030996</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03618431749265624</v>
+        <v>0.04497863008812206</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2057342080.582923</v>
+        <v>2038727855.770877</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08449169569552607</v>
+        <v>0.09448205296837359</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03511211543673898</v>
+        <v>0.03681324530178155</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2709527699.921046</v>
+        <v>2331835295.179015</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1174435535622932</v>
+        <v>0.1565643649989797</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03576216576105484</v>
+        <v>0.0346223202827178</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>74</v>
+      </c>
+      <c r="J85" t="n">
+        <v>485</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2297021970.161544</v>
+        <v>2355586084.69884</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1245363971616841</v>
+        <v>0.1692607837449094</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0217114630810238</v>
+        <v>0.02013231410356439</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>995423556.8140324</v>
+        <v>1496420813.899549</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1395151576755733</v>
+        <v>0.1664979459755291</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03836519173269382</v>
+        <v>0.02891433917719308</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3213402215.0913</v>
+        <v>3210154628.989705</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1187923962900013</v>
+        <v>0.1503739642877268</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03983150906169948</v>
+        <v>0.03314632598925004</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>72</v>
+      </c>
+      <c r="J88" t="n">
+        <v>496</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2981877902.958004</v>
+        <v>3323327905.114285</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1357169504639003</v>
+        <v>0.1480778354124829</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0355769461319212</v>
+        <v>0.03925819443227038</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>34</v>
+      </c>
+      <c r="J89" t="n">
+        <v>495</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1344047135.450715</v>
+        <v>1570643347.423261</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1297868066394244</v>
+        <v>0.1024586793584617</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0457411488388417</v>
+        <v>0.04650469210197425</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1314669066.372693</v>
+        <v>1570699085.960939</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1614915257192567</v>
+        <v>0.1603559196615726</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04076726633870186</v>
+        <v>0.04792917432067156</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2051876868.572072</v>
+        <v>2807153528.792614</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07661995866678115</v>
+        <v>0.07644353618152006</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04616564945500453</v>
+        <v>0.03638439284535886</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4163811835.986182</v>
+        <v>4608648579.060275</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1290374824827339</v>
+        <v>0.1044806395017282</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05022896630084661</v>
+        <v>0.04709331544399752</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>239</v>
+      </c>
+      <c r="J93" t="n">
+        <v>498</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2176223661.415701</v>
+        <v>1566060124.20549</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1450522451125094</v>
+        <v>0.1520189376722917</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03094061355304632</v>
+        <v>0.03345431032936632</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2942571073.548408</v>
+        <v>2801292783.264739</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08889850610237766</v>
+        <v>0.122060555076013</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03832587367081079</v>
+        <v>0.05060819942744677</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2234388375.059446</v>
+        <v>1471891356.980705</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1251506435946769</v>
+        <v>0.09026648183409416</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03950922050624674</v>
+        <v>0.02992920479235563</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5082356361.386162</v>
+        <v>4680524448.07332</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1408790211138698</v>
+        <v>0.1667522228715146</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02382512453464746</v>
+        <v>0.01789077217297872</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>259</v>
+      </c>
+      <c r="J97" t="n">
+        <v>497</v>
+      </c>
+      <c r="K97" t="n">
+        <v>23.79459557244033</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2467399168.799832</v>
+        <v>3890686064.690928</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1255735103545383</v>
+        <v>0.07831167133370612</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02731963992644502</v>
+        <v>0.02828888793292227</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>129</v>
+      </c>
+      <c r="J98" t="n">
+        <v>498</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2829391908.038767</v>
+        <v>3385228054.190986</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1375940765288964</v>
+        <v>0.1290053276778755</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03104626410684861</v>
+        <v>0.02784402128733109</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3963,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3173727239.824956</v>
+        <v>2899452710.522638</v>
       </c>
       <c r="F100" t="n">
-        <v>0.125413174461789</v>
+        <v>0.167795613973871</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02796330213029421</v>
+        <v>0.0197848911542747</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>232</v>
+      </c>
+      <c r="J100" t="n">
+        <v>496</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,22 +3998,31 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2352007282.608346</v>
+        <v>3442252706.47596</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1818693456985174</v>
+        <v>0.19959490191433</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03910200405928444</v>
+        <v>0.04220526232734146</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>48</v>
+      </c>
+      <c r="J101" t="n">
+        <v>498</v>
+      </c>
+      <c r="K101" t="n">
+        <v>61.74273999421396</v>
       </c>
     </row>
   </sheetData>
